--- a/R/analysis/data/Pt_17_Experimental.xlsx
+++ b/R/analysis/data/Pt_17_Experimental.xlsx
@@ -521,10 +521,10 @@
         <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>2.61</v>
+        <v>1.75</v>
       </c>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2.67</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -576,7 +576,7 @@
         <v>2.07</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.57</v>
+        <v>3.57</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
@@ -631,16 +631,16 @@
         <v>3.21</v>
       </c>
       <c r="K4" t="n">
-        <v>4.29</v>
+        <v>0.76</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.53</v>
+        <v>3.04</v>
       </c>
       <c r="M4" t="n">
-        <v>2.12</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.5</v>
+        <v>1.83</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -700,7 +700,7 @@
         <v>0.71</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>1.53</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.14</v>
@@ -811,16 +811,16 @@
         <v>2.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="M7" t="n">
-        <v>2.76</v>
+        <v>0.64</v>
       </c>
       <c r="N7" t="n">
-        <v>0.45</v>
+        <v>1.95</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0.55</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>1.12</v>
       </c>
       <c r="K10" t="n">
-        <v>4.41</v>
+        <v>0.4</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.28</v>
+        <v>3.12</v>
       </c>
       <c r="M10" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>1.07</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.86</v>
+        <v>3.86</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1167,16 +1167,16 @@
         <v>1.73</v>
       </c>
       <c r="K13" t="n">
-        <v>4.85</v>
+        <v>0.61</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.43</v>
+        <v>3.43</v>
       </c>
       <c r="M13" t="n">
-        <v>4.01</v>
+        <v>0.23</v>
       </c>
       <c r="N13" t="n">
-        <v>0.17</v>
+        <v>2.84</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1.17</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.17</v>
+        <v>3.17</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1343,16 +1343,16 @@
         <v>2.16</v>
       </c>
       <c r="K16" t="n">
-        <v>3.86</v>
+        <v>0.62</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.44</v>
+        <v>2.73</v>
       </c>
       <c r="M16" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
@@ -1519,16 +1519,16 @@
         <v>1.18</v>
       </c>
       <c r="K19" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="L19" t="n">
-        <v>0.17</v>
+        <v>3.16</v>
       </c>
       <c r="M19" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0.71</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>1.08</v>
       </c>
       <c r="K21" t="n">
-        <v>2.65</v>
+        <v>1.53</v>
       </c>
       <c r="L21" t="n">
-        <v>-2</v>
+        <v>2.67</v>
       </c>
       <c r="M21" t="n">
         <v>0.71</v>
@@ -1699,16 +1699,16 @@
         <v>1.85</v>
       </c>
       <c r="K22" t="n">
-        <v>3.77</v>
+        <v>0.47</v>
       </c>
       <c r="L22" t="n">
-        <v>0.66</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>3.18</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -1875,16 +1875,16 @@
         <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>3.94</v>
+        <v>1.11</v>
       </c>
       <c r="L25" t="n">
-        <v>0.78</v>
+        <v>2.79</v>
       </c>
       <c r="M25" t="n">
-        <v>4.01</v>
+        <v>0.23</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.17</v>
+        <v>2.84</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0.58</v>
       </c>
       <c r="L27" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M27" t="n">
         <v>0.89</v>
@@ -2051,16 +2051,16 @@
         <v>2.02</v>
       </c>
       <c r="K28" t="n">
-        <v>4.48</v>
+        <v>0.23</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.17</v>
+        <v>3.16</v>
       </c>
       <c r="M28" t="n">
-        <v>3.11</v>
+        <v>0.28</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2</v>
+        <v>2.2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
